--- a/dup/dup_Penginapan.xlsx
+++ b/dup/dup_Penginapan.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K34"/>
+  <dimension ref="A1:J34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,35 +456,30 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>reviews_count</t>
+          <t>reviews_average</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>reviews_average</t>
+          <t>latitude</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>latitude</t>
+          <t>longitude</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>longitude</t>
+          <t>is_permanently_closed</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>is_permanently_closed</t>
+          <t>gmaps_link</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>gmaps_link</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>latest_review_date</t>
         </is>
@@ -507,25 +502,24 @@
           <t>0813-2753-1407</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr"/>
+      <c r="E2" t="n">
+        <v>4.6</v>
+      </c>
       <c r="F2" t="n">
-        <v>4.6</v>
+        <v>-7.841999</v>
       </c>
       <c r="G2" t="n">
-        <v>-7.841999</v>
-      </c>
-      <c r="H2" t="n">
         <v>110.322738</v>
       </c>
-      <c r="I2" t="b">
-        <v>0</v>
+      <c r="H2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Villa+Kayu+Jogja/@-7.8417564,110.247634,13z/data=!4m14!1m3!2m2!1sPenginapan+Bantul!6e3!3m9!1s0x2e7af9ead3a08ae3:0x9b8b02b0037ddae8!5m2!4m1!1i2!8m2!3d-7.8419995!4d110.3227379!15sChFQZW5naW5hcGFuIEJhbnR1bJIBEnByaXZhdGVfZ3Vlc3Rfcm9vbeABAA!16s%2Fg%2F11h3qrl4q7?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J2" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Villa+Kayu+Jogja/@-7.8417564,110.247634,13z/data=!4m14!1m3!2m2!1sPenginapan+Bantul!6e3!3m9!1s0x2e7af9ead3a08ae3:0x9b8b02b0037ddae8!5m2!4m1!1i2!8m2!3d-7.8419995!4d110.3227379!15sChFQZW5naW5hcGFuIEJhbnR1bJIBEnByaXZhdGVfZ3Vlc3Rfcm9vbeABAA!16s%2Fg%2F11h3qrl4q7?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
         <is>
           <t>2 minggu lalu di 
 Google</t>
@@ -553,25 +547,24 @@
           <t>0895-4173-00072</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr"/>
+      <c r="E3" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F3" t="n">
-        <v>4.5</v>
+        <v>-7.844063</v>
       </c>
       <c r="G3" t="n">
-        <v>-7.844063</v>
-      </c>
-      <c r="H3" t="n">
         <v>110.327563</v>
       </c>
-      <c r="I3" t="b">
-        <v>0</v>
+      <c r="H3" t="b">
+        <v>0</v>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Budi+Bambu+Homestay+Yogyakarta+Bangunjiwo+RedPartner/@-7.8440625,110.2554647,13z/data=!4m14!1m3!2m2!1sPenginapan+Bantul!6e3!3m9!1s0x2e7af955f54183bd:0x7f8afd28b60bdb97!5m2!4m1!1i2!8m2!3d-7.8440625!4d110.3275625!15sChFQZW5naW5hcGFuIEJhbnR1bJIBEnByaXZhdGVfZ3Vlc3Rfcm9vbeABAA!16s%2Fg%2F11q22q7r64?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J3" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Budi+Bambu+Homestay+Yogyakarta+Bangunjiwo+RedPartner/@-7.8440625,110.2554647,13z/data=!4m14!1m3!2m2!1sPenginapan+Bantul!6e3!3m9!1s0x2e7af955f54183bd:0x7f8afd28b60bdb97!5m2!4m1!1i2!8m2!3d-7.8440625!4d110.3275625!15sChFQZW5naW5hcGFuIEJhbnR1bJIBEnByaXZhdGVfZ3Vlc3Rfcm9vbeABAA!16s%2Fg%2F11q22q7r64?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
         <is>
           <t>3 minggu lalu di 
 Google</t>
@@ -599,25 +592,24 @@
           <t>0821-3306-2703</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr"/>
+      <c r="E4" t="n">
+        <v>5</v>
+      </c>
       <c r="F4" t="n">
-        <v>5</v>
+        <v>-7.915695</v>
       </c>
       <c r="G4" t="n">
-        <v>-7.915695</v>
-      </c>
-      <c r="H4" t="n">
         <v>110.397202</v>
       </c>
-      <c r="I4" t="b">
-        <v>0</v>
+      <c r="H4" t="b">
+        <v>0</v>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Sri-Ga%C3%AFa+Yogyakarta/@-7.9178216,110.2988911,13z/data=!4m14!1m3!2m2!1sPenginapan+Bantul!6e3!3m9!1s0x2e7a545f263a42a5:0x81100f1e06618f25!5m2!4m1!1i2!8m2!3d-7.9156955!4d110.3972022!15sChFQZW5naW5hcGFuIEJhbnR1bJIBC2d1ZXN0X2hvdXNl4AEA!16s%2Fg%2F11c6_zxd4j?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J4" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Sri-Ga%C3%AFa+Yogyakarta/@-7.9178216,110.2988911,13z/data=!4m14!1m3!2m2!1sPenginapan+Bantul!6e3!3m9!1s0x2e7a545f263a42a5:0x81100f1e06618f25!5m2!4m1!1i2!8m2!3d-7.9156955!4d110.3972022!15sChFQZW5naW5hcGFuIEJhbnR1bJIBC2d1ZXN0X2hvdXNl4AEA!16s%2Fg%2F11c6_zxd4j?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr">
         <is>
           <t>1 hari lalu di 
 Google</t>
@@ -645,25 +637,24 @@
           <t>0895-3449-19000</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr"/>
+      <c r="E5" t="n">
+        <v>4.7</v>
+      </c>
       <c r="F5" t="n">
-        <v>4.7</v>
+        <v>-7.839233</v>
       </c>
       <c r="G5" t="n">
-        <v>-7.839233</v>
-      </c>
-      <c r="H5" t="n">
         <v>110.358038</v>
       </c>
-      <c r="I5" t="b">
-        <v>0</v>
-      </c>
-      <c r="J5" t="inlineStr">
+      <c r="H5" t="b">
+        <v>0</v>
+      </c>
+      <c r="I5" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Bedhot+Homestay/@-7.8392331,110.2859404,13z/data=!4m14!1m3!2m2!1sPenginapan+Bantul!6e3!3m9!1s0x2e7a564b1c17c5cf:0x6c68e2655d67535c!5m2!4m1!1i2!8m2!3d-7.8392331!4d110.3580382!15sChFQZW5naW5hcGFuIEJhbnR1bJIBBWxvZGdl4AEA!16s%2Fg%2F11bxd94t3j?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -686,25 +677,24 @@
           <t>0895-4173-00072</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr"/>
+      <c r="E6" t="n">
+        <v>5</v>
+      </c>
       <c r="F6" t="n">
-        <v>5</v>
+        <v>-7.840207</v>
       </c>
       <c r="G6" t="n">
-        <v>-7.840207</v>
-      </c>
-      <c r="H6" t="n">
         <v>110.318018</v>
       </c>
-      <c r="I6" t="b">
-        <v>0</v>
+      <c r="H6" t="b">
+        <v>0</v>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/The+Lavana+Greenkhaza+Villa+Jogja/@-7.8417673,110.2492784,13z/data=!4m14!1m3!2m2!1sPenginapan+Bantul!6e3!3m9!1s0x2e7af9205ad1170d:0x7ebf92b608db181!5m2!4m1!1i2!8m2!3d-7.8402067!4d110.3180176!15sChFQZW5naW5hcGFuIEJhbnR1bJIBBWhvdGVs4AEA!16s%2Fg%2F11s930clnk?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J6" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/The+Lavana+Greenkhaza+Villa+Jogja/@-7.8417673,110.2492784,13z/data=!4m14!1m3!2m2!1sPenginapan+Bantul!6e3!3m9!1s0x2e7af9205ad1170d:0x7ebf92b608db181!5m2!4m1!1i2!8m2!3d-7.8402067!4d110.3180176!15sChFQZW5naW5hcGFuIEJhbnR1bJIBBWhvdGVs4AEA!16s%2Fg%2F11s930clnk?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr">
         <is>
           <t>2 tahun lalu di 
 Google</t>
@@ -732,25 +722,24 @@
           <t>(0274) 6461251</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr"/>
+      <c r="E7" t="n">
+        <v>4.7</v>
+      </c>
       <c r="F7" t="n">
-        <v>4.7</v>
+        <v>-7.840495</v>
       </c>
       <c r="G7" t="n">
-        <v>-7.840495</v>
-      </c>
-      <c r="H7" t="n">
         <v>110.318127</v>
       </c>
-      <c r="I7" t="b">
-        <v>0</v>
-      </c>
-      <c r="J7" t="inlineStr">
+      <c r="H7" t="b">
+        <v>0</v>
+      </c>
+      <c r="I7" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Grand+Bale+Home+%26+Resort/@-7.8404952,110.2460296,13z/data=!4m14!1m3!2m2!1sPenginapan+Bantul!6e3!3m9!1s0x2e7af888107569a7:0x1cf2530b2f3cecab!5m2!4m1!1i2!8m2!3d-7.8404952!4d110.3181274!15sChFQZW5naW5hcGFuIEJhbnR1bJIBBXZpbGxh4AEA!16s%2Fg%2F11gfp300l4?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -769,25 +758,24 @@
           <t>0823-2361-9588</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr"/>
+      <c r="E8" t="n">
+        <v>4.8</v>
+      </c>
       <c r="F8" t="n">
-        <v>4.8</v>
+        <v>-8.020683</v>
       </c>
       <c r="G8" t="n">
-        <v>-8.020683</v>
-      </c>
-      <c r="H8" t="n">
         <v>110.334817</v>
       </c>
-      <c r="I8" t="b">
-        <v>0</v>
+      <c r="H8" t="b">
+        <v>0</v>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Villa+Joglo+Paris/@-8.0206834,110.2627192,13z/data=!4m14!1m3!2m2!1sPenginapan+Bantul!6e3!3m9!1s0x2e7bab0055afebb5:0xb2d3781f1d304b97!5m2!4m1!1i2!8m2!3d-8.0206834!4d110.334817!15sChFQZW5naW5hcGFuIEJhbnR1bJIBBXZpbGxh4AEA!16s%2Fg%2F11vt616lh2?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J8" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Villa+Joglo+Paris/@-8.0206834,110.2627192,13z/data=!4m14!1m3!2m2!1sPenginapan+Bantul!6e3!3m9!1s0x2e7bab0055afebb5:0xb2d3781f1d304b97!5m2!4m1!1i2!8m2!3d-8.0206834!4d110.334817!15sChFQZW5naW5hcGFuIEJhbnR1bJIBBXZpbGxh4AEA!16s%2Fg%2F11vt616lh2?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K8" t="inlineStr">
         <is>
           <t>5 hari lalu di 
 Google</t>
@@ -815,25 +803,24 @@
           <t>0895-4173-00072</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr"/>
+      <c r="E9" t="n">
+        <v>4</v>
+      </c>
       <c r="F9" t="n">
-        <v>4</v>
+        <v>-7.840979</v>
       </c>
       <c r="G9" t="n">
-        <v>-7.840979</v>
-      </c>
-      <c r="H9" t="n">
         <v>110.327157</v>
       </c>
-      <c r="I9" t="b">
-        <v>0</v>
-      </c>
-      <c r="J9" t="inlineStr">
+      <c r="H9" t="b">
+        <v>0</v>
+      </c>
+      <c r="I9" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Aliandra+Villa+by+The+Lavana/@-7.8468224,110.2489819,13z/data=!4m14!1m3!2m2!1sPenginapan+Bantul!6e3!3m9!1s0x2e7af9422327ba69:0xc69291a082b321f4!5m2!4m1!1i2!8m2!3d-7.8409789!4d110.3271574!15sChFQZW5naW5hcGFuIEJhbnR1bJIBBWhvdGVs4AEA!16s%2Fg%2F11sty211x5?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -856,21 +843,20 @@
           <t>0895-4173-00072</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr"/>
-      <c r="F10" t="n">
+      <c r="E10" t="n">
         <v>4</v>
       </c>
+      <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr"/>
-      <c r="H10" t="inlineStr"/>
-      <c r="I10" t="b">
-        <v>0</v>
-      </c>
-      <c r="J10" t="inlineStr">
+      <c r="H10" t="b">
+        <v>0</v>
+      </c>
+      <c r="I10" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Sabrang+huis/@-7.8468224,110.2489819,13z/data=!4m16!1m3!2m2!1sPenginapan+Bantul!6e3!3m11!1s0x2e7af9484be0c60f:0xb3ec92723e455c97!5m2!4m1!1i2!8m2!3d-7.8500078!4d110.3307898!9m1!1b1!15sChFQZW5naW5hcGFuIEJhbnR1bJIBEnByaXZhdGVfZ3Vlc3Rfcm9vbeABAA!16s%2Fg%2F11gsbqxc4j?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -889,25 +875,24 @@
           <t>0878-3560-5044</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr"/>
+      <c r="E11" t="n">
+        <v>5</v>
+      </c>
       <c r="F11" t="n">
-        <v>5</v>
+        <v>-7.841176</v>
       </c>
       <c r="G11" t="n">
-        <v>-7.841176</v>
-      </c>
-      <c r="H11" t="n">
         <v>110.319121</v>
       </c>
-      <c r="I11" t="b">
-        <v>0</v>
-      </c>
-      <c r="J11" t="inlineStr">
+      <c r="H11" t="b">
+        <v>0</v>
+      </c>
+      <c r="I11" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Hello+Belle+Villa/@-7.8468224,110.2489819,13z/data=!4m14!1m3!2m2!1sPenginapan+Bantul!6e3!3m9!1s0x2e7af97eabacce3b:0xa8ade9c1b71b511!5m2!4m1!1i2!8m2!3d-7.8411764!4d110.3191213!15sChFQZW5naW5hcGFuIEJhbnR1bJIBBWhvdGVs4AEA!16s%2Fg%2F11jsxrbcdf?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -926,25 +911,24 @@
           <t>0878-3560-5044</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr"/>
+      <c r="E12" t="n">
+        <v>4.6</v>
+      </c>
       <c r="F12" t="n">
-        <v>4.6</v>
+        <v>-7.837032</v>
       </c>
       <c r="G12" t="n">
-        <v>-7.837032</v>
-      </c>
-      <c r="H12" t="n">
         <v>110.320406</v>
       </c>
-      <c r="I12" t="b">
-        <v>0</v>
+      <c r="H12" t="b">
+        <v>0</v>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Shifana+Home+stay+Syariah/@-7.8468224,110.2489819,13z/data=!4m14!1m3!2m2!1sPenginapan+Bantul!6e3!3m9!1s0x2e7af9c3311c2bc7:0x7e1aadc6118420b4!5m2!4m1!1i2!8m2!3d-7.8370316!4d110.3204061!15sChFQZW5naW5hcGFuIEJhbnR1bJIBEnByaXZhdGVfZ3Vlc3Rfcm9vbeABAA!16s%2Fg%2F11smcqjvt_?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J12" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Shifana+Home+stay+Syariah/@-7.8468224,110.2489819,13z/data=!4m14!1m3!2m2!1sPenginapan+Bantul!6e3!3m9!1s0x2e7af9c3311c2bc7:0x7e1aadc6118420b4!5m2!4m1!1i2!8m2!3d-7.8370316!4d110.3204061!15sChFQZW5naW5hcGFuIEJhbnR1bJIBEnByaXZhdGVfZ3Vlc3Rfcm9vbeABAA!16s%2Fg%2F11smcqjvt_?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K12" t="inlineStr">
         <is>
           <t>seminggu lalu di 
 Google</t>
@@ -964,25 +948,24 @@
       </c>
       <c r="C13" t="inlineStr"/>
       <c r="D13" t="inlineStr"/>
-      <c r="E13" t="inlineStr"/>
+      <c r="E13" t="n">
+        <v>4</v>
+      </c>
       <c r="F13" t="n">
-        <v>4</v>
+        <v>-7.84293</v>
       </c>
       <c r="G13" t="n">
-        <v>-7.84293</v>
-      </c>
-      <c r="H13" t="n">
         <v>110.285942</v>
       </c>
-      <c r="I13" t="b">
-        <v>0</v>
+      <c r="H13" t="b">
+        <v>0</v>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Villa+Saluka/@-7.8429301,110.2138441,13z/data=!4m14!1m3!2m2!1sPenginapan+Bantul!6e3!3m9!1s0x2e7af9484e224891:0x21b7ea5befb1040d!5m2!4m1!1i2!8m2!3d-7.8429301!4d110.2859419!15sChFQZW5naW5hcGFuIEJhbnR1bJIBBXZpbGxh4AEA!16s%2Fg%2F11fnx2fwhn?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J13" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Villa+Saluka/@-7.8429301,110.2138441,13z/data=!4m14!1m3!2m2!1sPenginapan+Bantul!6e3!3m9!1s0x2e7af9484e224891:0x21b7ea5befb1040d!5m2!4m1!1i2!8m2!3d-7.8429301!4d110.2859419!15sChFQZW5naW5hcGFuIEJhbnR1bJIBBXZpbGxh4AEA!16s%2Fg%2F11fnx2fwhn?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K13" t="inlineStr">
         <is>
           <t>9 bulan lalu di 
 Google</t>
@@ -1010,25 +993,24 @@
           <t>0878-2145-2444</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr"/>
+      <c r="E14" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F14" t="n">
-        <v>4.5</v>
+        <v>-7.842943</v>
       </c>
       <c r="G14" t="n">
-        <v>-7.842943</v>
-      </c>
-      <c r="H14" t="n">
         <v>110.286549</v>
       </c>
-      <c r="I14" t="b">
-        <v>0</v>
+      <c r="H14" t="b">
+        <v>0</v>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Villa+Sunset/@-7.8429431,110.2144511,13z/data=!4m14!1m3!2m2!1sPenginapan+Bantul!6e3!3m9!1s0x2e7af8ff092ea027:0x317478a189f87641!5m2!4m1!1i2!8m2!3d-7.8429431!4d110.2865489!15sChFQZW5naW5hcGFuIEJhbnR1bJIBBXZpbGxh4AEA!16s%2Fg%2F11cjj002dp?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J14" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Villa+Sunset/@-7.8429431,110.2144511,13z/data=!4m14!1m3!2m2!1sPenginapan+Bantul!6e3!3m9!1s0x2e7af8ff092ea027:0x317478a189f87641!5m2!4m1!1i2!8m2!3d-7.8429431!4d110.2865489!15sChFQZW5naW5hcGFuIEJhbnR1bJIBBXZpbGxh4AEA!16s%2Fg%2F11cjj002dp?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K14" t="inlineStr">
         <is>
           <t>sebulan lalu di 
 Google</t>
@@ -1053,22 +1035,21 @@
         </is>
       </c>
       <c r="E15" t="inlineStr"/>
-      <c r="F15" t="inlineStr"/>
+      <c r="F15" t="n">
+        <v>-7.862897</v>
+      </c>
       <c r="G15" t="n">
-        <v>-7.862897</v>
-      </c>
-      <c r="H15" t="n">
         <v>110.29453</v>
       </c>
-      <c r="I15" t="b">
-        <v>0</v>
-      </c>
-      <c r="J15" t="inlineStr">
+      <c r="H15" t="b">
+        <v>0</v>
+      </c>
+      <c r="I15" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Argosari+Homestay/@-7.8641723,110.2216369,13z/data=!4m14!1m3!2m2!1sPenginapan+Bantul!6e3!3m9!1s0x2e7af8dd36df7d51:0xca63a138e1da907b!5m2!4m1!1i2!8m2!3d-7.8628975!4d110.2945303!15sChFQZW5naW5hcGFuIEJhbnR1bJIBBmhvc3RlbOABAA!16s%2Fg%2F11p5_j65pj?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1088,22 +1069,21 @@
         </is>
       </c>
       <c r="E16" t="inlineStr"/>
-      <c r="F16" t="inlineStr"/>
+      <c r="F16" t="n">
+        <v>-7.862897</v>
+      </c>
       <c r="G16" t="n">
-        <v>-7.862897</v>
-      </c>
-      <c r="H16" t="n">
         <v>110.29453</v>
       </c>
-      <c r="I16" t="b">
-        <v>0</v>
-      </c>
-      <c r="J16" t="inlineStr">
+      <c r="H16" t="b">
+        <v>0</v>
+      </c>
+      <c r="I16" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Argosari+Homestay/@-7.8641723,110.2216369,13z/data=!4m14!1m3!2m2!1sPenginapan+Bantul!6e3!3m9!1s0x2e7af8dd36df7d51:0xca63a138e1da907b!5m2!4m1!1i2!8m2!3d-7.8628975!4d110.2945303!15sChFQZW5naW5hcGFuIEJhbnR1bJIBBmhvc3RlbOABAA!16s%2Fg%2F11p5_j65pj?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1126,25 +1106,24 @@
           <t>0823-2467-7762</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr"/>
+      <c r="E17" t="n">
+        <v>4.3</v>
+      </c>
       <c r="F17" t="n">
-        <v>4.3</v>
+        <v>-8.148939</v>
       </c>
       <c r="G17" t="n">
-        <v>-8.148939</v>
-      </c>
-      <c r="H17" t="n">
         <v>110.61572</v>
       </c>
-      <c r="I17" t="b">
-        <v>0</v>
+      <c r="H17" t="b">
+        <v>0</v>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Penginapan+Putra+Darma/@-7.9691094,110.3161461,11z/data=!4m14!1m3!2m2!1sPenginapan+Gunungkidul!6e3!3m9!1s0x2e7bba29f151669b:0x33417b7d769cd479!5m2!4m1!1i2!8m2!3d-8.1489394!4d110.6157204!15sChZQZW5naW5hcGFuIEd1bnVuZ2tpZHVskgEFaG90ZWzgAQA!16s%2Fg%2F11c0vm87qy?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J17" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Penginapan+Putra+Darma/@-7.9691094,110.3161461,11z/data=!4m14!1m3!2m2!1sPenginapan+Gunungkidul!6e3!3m9!1s0x2e7bba29f151669b:0x33417b7d769cd479!5m2!4m1!1i2!8m2!3d-8.1489394!4d110.6157204!15sChZQZW5naW5hcGFuIEd1bnVuZ2tpZHVskgEFaG90ZWzgAQA!16s%2Fg%2F11c0vm87qy?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K17" t="inlineStr">
         <is>
           <t>5 hari lalu di 
 Google</t>
@@ -1172,25 +1151,24 @@
           <t>0858-7007-9452</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr"/>
+      <c r="E18" t="n">
+        <v>3.9</v>
+      </c>
       <c r="F18" t="n">
-        <v>3.9</v>
+        <v>-8.131833</v>
       </c>
       <c r="G18" t="n">
-        <v>-8.131833</v>
-      </c>
-      <c r="H18" t="n">
         <v>110.555934</v>
       </c>
-      <c r="I18" t="b">
-        <v>0</v>
-      </c>
-      <c r="J18" t="inlineStr">
+      <c r="H18" t="b">
+        <v>0</v>
+      </c>
+      <c r="I18" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Penginapan+Joko+Samudro/@-7.9691094,110.3161461,11z/data=!4m14!1m3!2m2!1sPenginapan+Gunungkidul!6e3!3m9!1s0x2e7bba91937159df:0x65dadce08dd5d70a!5m2!4m1!1i2!8m2!3d-8.1318328!4d110.5559339!15sChZQZW5naW5hcGFuIEd1bnVuZ2tpZHVskgEFaG90ZWzgAQA!16s%2Fg%2F11fqv490nw?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K18" t="inlineStr"/>
+      <c r="J18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1213,25 +1191,24 @@
           <t>0812-9862-3668</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr"/>
+      <c r="E19" t="n">
+        <v>3.8</v>
+      </c>
       <c r="F19" t="n">
-        <v>3.8</v>
+        <v>-8.149084</v>
       </c>
       <c r="G19" t="n">
-        <v>-8.149084</v>
-      </c>
-      <c r="H19" t="n">
         <v>110.617225</v>
       </c>
-      <c r="I19" t="b">
-        <v>0</v>
-      </c>
-      <c r="J19" t="inlineStr">
+      <c r="H19" t="b">
+        <v>0</v>
+      </c>
+      <c r="I19" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Radika+Paradise+Villa+%26+Cottage/@-8.1436963,110.3189871,11z/data=!4m14!1m3!2m2!1sPenginapan+Gunungkidul!6e3!3m9!1s0x2e7bb93120f9706b:0x975b2a321357dae8!5m2!4m1!1i2!8m2!3d-8.1490842!4d110.6172251!15sChZQZW5naW5hcGFuIEd1bnVuZ2tpZHVskgEFdmlsbGHgAQA!16s%2Fg%2F11ff0sy0qp?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K19" t="inlineStr"/>
+      <c r="J19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1254,25 +1231,24 @@
           <t>0813-2846-3551</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr"/>
+      <c r="E20" t="n">
+        <v>4.7</v>
+      </c>
       <c r="F20" t="n">
-        <v>4.7</v>
+        <v>-8.130642</v>
       </c>
       <c r="G20" t="n">
-        <v>-8.130642</v>
-      </c>
-      <c r="H20" t="n">
         <v>110.555302</v>
       </c>
-      <c r="I20" t="b">
-        <v>0</v>
+      <c r="H20" t="b">
+        <v>0</v>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Penginapan+Barokah+Pantai+Kukup/@-8.1436963,110.3189871,11z/data=!4m14!1m3!2m2!1sPenginapan+Gunungkidul!6e3!3m9!1s0x2e7bba9195d13555:0x138f3c9c398b9bef!5m2!4m1!1i2!8m2!3d-8.1306424!4d110.5553017!15sChZQZW5naW5hcGFuIEd1bnVuZ2tpZHVskgEFbG9kZ2XgAQA!16s%2Fg%2F11b90f8bj0?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J20" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Penginapan+Barokah+Pantai+Kukup/@-8.1436963,110.3189871,11z/data=!4m14!1m3!2m2!1sPenginapan+Gunungkidul!6e3!3m9!1s0x2e7bba9195d13555:0x138f3c9c398b9bef!5m2!4m1!1i2!8m2!3d-8.1306424!4d110.5553017!15sChZQZW5naW5hcGFuIEd1bnVuZ2tpZHVskgEFbG9kZ2XgAQA!16s%2Fg%2F11b90f8bj0?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K20" t="inlineStr">
         <is>
           <t>seminggu lalu di 
 Google</t>
@@ -1300,25 +1276,24 @@
           <t>(0274) 368729</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr"/>
+      <c r="E21" t="n">
+        <v>4</v>
+      </c>
       <c r="F21" t="n">
-        <v>4</v>
+        <v>-8.020579</v>
       </c>
       <c r="G21" t="n">
-        <v>-8.020579</v>
-      </c>
-      <c r="H21" t="n">
         <v>110.335373</v>
       </c>
-      <c r="I21" t="b">
-        <v>0</v>
-      </c>
-      <c r="J21" t="inlineStr">
+      <c r="H21" t="b">
+        <v>0</v>
+      </c>
+      <c r="I21" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Adinda+Hotel/@-8.0205793,110.0469818,11z/data=!4m14!1m3!2m2!1sPenginapan+Gunungkidul!6e3!3m9!1s0x2e7a55fed76c8c8b:0x3973429da81ca5b9!5m2!4m1!1i2!8m2!3d-8.0205793!4d110.3353729!15sChZQZW5naW5hcGFuIEd1bnVuZ2tpZHVskgEHbG9kZ2luZ-ABAA!16s%2Fg%2F11b6dg1jq6?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K21" t="inlineStr"/>
+      <c r="J21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1337,25 +1312,24 @@
           <t>0812-2588-8257</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr"/>
+      <c r="E22" t="n">
+        <v>4.2</v>
+      </c>
       <c r="F22" t="n">
-        <v>4.2</v>
+        <v>-8.131924</v>
       </c>
       <c r="G22" t="n">
-        <v>-8.131924</v>
-      </c>
-      <c r="H22" t="n">
         <v>110.5513</v>
       </c>
-      <c r="I22" t="b">
-        <v>0</v>
+      <c r="H22" t="b">
+        <v>0</v>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Ama+Awa+Resort/@-8.1368127,110.2866644,11z/data=!4m14!1m3!2m2!1sPenginapan+Gunungkidul!6e3!3m9!1s0x2e7bbbf56df3b87f:0x1c6b1325d2466ca5!5m2!4m1!1i2!8m2!3d-8.1319238!4d110.5513004!15sChZQZW5naW5hcGFuIEd1bnVuZ2tpZHVskgEFaG90ZWzgAQA!16s%2Fg%2F11khf7frw_?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J22" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Ama+Awa+Resort/@-8.1368127,110.2866644,11z/data=!4m14!1m3!2m2!1sPenginapan+Gunungkidul!6e3!3m9!1s0x2e7bbbf56df3b87f:0x1c6b1325d2466ca5!5m2!4m1!1i2!8m2!3d-8.1319238!4d110.5513004!15sChZQZW5naW5hcGFuIEd1bnVuZ2tpZHVskgEFaG90ZWzgAQA!16s%2Fg%2F11khf7frw_?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K22" t="inlineStr">
         <is>
           <t>3 hari lalu di 
 Google</t>
@@ -1383,25 +1357,24 @@
           <t>0821-3544-6969</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr"/>
+      <c r="E23" t="n">
+        <v>4.6</v>
+      </c>
       <c r="F23" t="n">
-        <v>4.6</v>
+        <v>-8.02624</v>
       </c>
       <c r="G23" t="n">
-        <v>-8.02624</v>
-      </c>
-      <c r="H23" t="n">
         <v>110.574194</v>
       </c>
-      <c r="I23" t="b">
-        <v>0</v>
-      </c>
-      <c r="J23" t="inlineStr">
+      <c r="H23" t="b">
+        <v>0</v>
+      </c>
+      <c r="I23" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Giri+Wanara+Glamping+Resort/@-8.0262399,110.2858024,11z/data=!4m14!1m3!2m2!1sPenginapan+Gunungkidul!6e3!3m9!1s0x2e7bb3feee4d8d67:0x8773d4eafed4da8c!5m2!4m1!1i2!8m2!3d-8.0262399!4d110.5741935!15sChZQZW5naW5hcGFuIEd1bnVuZ2tpZHVskgEFaG90ZWzgAQA!16s%2Fg%2F11q_8qdync?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K23" t="inlineStr"/>
+      <c r="J23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -1424,25 +1397,24 @@
           <t>0821-3544-6969</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr"/>
+      <c r="E24" t="n">
+        <v>4.6</v>
+      </c>
       <c r="F24" t="n">
-        <v>4.6</v>
+        <v>-8.03467</v>
       </c>
       <c r="G24" t="n">
-        <v>-8.03467</v>
-      </c>
-      <c r="H24" t="n">
         <v>110.348441</v>
       </c>
-      <c r="I24" t="b">
-        <v>0</v>
+      <c r="H24" t="b">
+        <v>0</v>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Edge+Resort+Yogyakarta/@-8.0346702,110.0600497,11z/data=!4m14!1m3!2m2!1sPenginapan+Gunungkidul!6e3!3m9!1s0x2e7babb3a9945f8d:0x7f1996e622912b9e!5m2!4m1!1i2!8m2!3d-8.0346702!4d110.3484408!15sChZQZW5naW5hcGFuIEd1bnVuZ2tpZHVskgEMcmVzb3J0X2hvdGVs4AEA!16s%2Fg%2F11nfrdsvrq?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J24" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Edge+Resort+Yogyakarta/@-8.0346702,110.0600497,11z/data=!4m14!1m3!2m2!1sPenginapan+Gunungkidul!6e3!3m9!1s0x2e7babb3a9945f8d:0x7f1996e622912b9e!5m2!4m1!1i2!8m2!3d-8.0346702!4d110.3484408!15sChZQZW5naW5hcGFuIEd1bnVuZ2tpZHVskgEMcmVzb3J0X2hvdGVs4AEA!16s%2Fg%2F11nfrdsvrq?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K24" t="inlineStr">
         <is>
           <t>13 jam lalu di 
 Google</t>
@@ -1470,25 +1442,24 @@
           <t>0822-2704-0390</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr"/>
+      <c r="E25" t="n">
+        <v>4.9</v>
+      </c>
       <c r="F25" t="n">
-        <v>4.9</v>
+        <v>-8.130367</v>
       </c>
       <c r="G25" t="n">
-        <v>-8.130367</v>
-      </c>
-      <c r="H25" t="n">
         <v>110.55188</v>
       </c>
-      <c r="I25" t="b">
-        <v>0</v>
-      </c>
-      <c r="J25" t="inlineStr">
+      <c r="H25" t="b">
+        <v>0</v>
+      </c>
+      <c r="I25" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Naradhipta+Resort/@-7.967017,110.3177025,11z/data=!4m14!1m3!2m2!1sPenginapan+Gunungkidul!6e3!3m9!1s0x2e7bbb5b51f84289:0x2d5ce14bcb80246b!5m2!4m1!1i2!8m2!3d-8.1303675!4d110.5518802!15sChZQZW5naW5hcGFuIEd1bnVuZ2tpZHVskgEFaG90ZWzgAQA!16s%2Fg%2F11w49dyc2v?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K25" t="inlineStr"/>
+      <c r="J25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -1507,25 +1478,24 @@
           <t>0858-6655-3844</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr"/>
+      <c r="E26" t="n">
+        <v>4.4</v>
+      </c>
       <c r="F26" t="n">
-        <v>4.4</v>
+        <v>-8.13302</v>
       </c>
       <c r="G26" t="n">
-        <v>-8.13302</v>
-      </c>
-      <c r="H26" t="n">
         <v>110.552502</v>
       </c>
-      <c r="I26" t="b">
-        <v>0</v>
-      </c>
-      <c r="J26" t="inlineStr">
+      <c r="H26" t="b">
+        <v>0</v>
+      </c>
+      <c r="I26" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Inessya+Resort/@-8.1330199,110.2641113,11z/data=!4m14!1m3!2m2!1sPenginapan+Gunungkidul!6e3!3m9!1s0x2e7bba93ebb44f41:0x9c9929ca51b463ab!5m2!4m1!1i2!8m2!3d-8.1330199!4d110.5525024!15sChZQZW5naW5hcGFuIEd1bnVuZ2tpZHVskgEMcmVzb3J0X2hvdGVs4AEA!16s%2Fg%2F11c57d9b2d?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K26" t="inlineStr"/>
+      <c r="J26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -1548,25 +1518,24 @@
           <t>0813-2976-7117</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr"/>
+      <c r="E27" t="n">
+        <v>4.8</v>
+      </c>
       <c r="F27" t="n">
-        <v>4.8</v>
+        <v>-8.150050999999999</v>
       </c>
       <c r="G27" t="n">
-        <v>-8.150050999999999</v>
-      </c>
-      <c r="H27" t="n">
         <v>110.614018</v>
       </c>
-      <c r="I27" t="b">
-        <v>0</v>
-      </c>
-      <c r="J27" t="inlineStr">
+      <c r="H27" t="b">
+        <v>0</v>
+      </c>
+      <c r="I27" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Limasan+Mbah+Darmo/@-8.1504615,110.3255895,11z/data=!4m14!1m3!2m2!1sPenginapan+Gunungkidul!6e3!3m9!1s0x2e7bbb8235d8197d:0x65ac68bfb4a605b6!5m2!4m1!1i2!8m2!3d-8.1500513!4d110.6140176!15sChZQZW5naW5hcGFuIEd1bnVuZ2tpZHVskgEOaW5kb29yX2xvZGdpbmfgAQA!16s%2Fg%2F11fsynxtp9?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K27" t="inlineStr"/>
+      <c r="J27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -1589,25 +1558,24 @@
           <t>0813-2976-7117</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr"/>
+      <c r="E28" t="n">
+        <v>4.8</v>
+      </c>
       <c r="F28" t="n">
-        <v>4.8</v>
+        <v>-8.126208</v>
       </c>
       <c r="G28" t="n">
-        <v>-8.126208</v>
-      </c>
-      <c r="H28" t="n">
         <v>110.551301</v>
       </c>
-      <c r="I28" t="b">
-        <v>0</v>
+      <c r="H28" t="b">
+        <v>0</v>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Home+Stay+Baron+Sari/@-8.1504615,110.3255895,11z/data=!4m14!1m3!2m2!1sPenginapan+Gunungkidul!6e3!3m9!1s0x2e7bba99f0daa333:0xe0cbc817db57a956!5m2!4m1!1i2!8m2!3d-8.1262076!4d110.5513005!15sChZQZW5naW5hcGFuIEd1bnVuZ2tpZHVskgEFaG90ZWzgAQA!16s%2Fg%2F1pzw4vznl?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J28" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Home+Stay+Baron+Sari/@-8.1504615,110.3255895,11z/data=!4m14!1m3!2m2!1sPenginapan+Gunungkidul!6e3!3m9!1s0x2e7bba99f0daa333:0xe0cbc817db57a956!5m2!4m1!1i2!8m2!3d-8.1262076!4d110.5513005!15sChZQZW5naW5hcGFuIEd1bnVuZ2tpZHVskgEFaG90ZWzgAQA!16s%2Fg%2F1pzw4vznl?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K28" t="inlineStr">
         <is>
           <t>2 hari lalu di 
 Google</t>
@@ -1627,25 +1595,24 @@
       </c>
       <c r="C29" t="inlineStr"/>
       <c r="D29" t="inlineStr"/>
-      <c r="E29" t="inlineStr"/>
+      <c r="E29" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F29" t="n">
-        <v>4.5</v>
+        <v>-8.104331999999999</v>
       </c>
       <c r="G29" t="n">
-        <v>-8.104331999999999</v>
-      </c>
-      <c r="H29" t="n">
         <v>110.460338</v>
       </c>
-      <c r="I29" t="b">
-        <v>0</v>
-      </c>
-      <c r="J29" t="inlineStr">
+      <c r="H29" t="b">
+        <v>0</v>
+      </c>
+      <c r="I29" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/HEHA+New+Cabin%2B+Ocean+Glamping/@-8.1043318,110.1719469,11z/data=!4m14!1m3!2m2!1sPenginapan+Gunungkidul!6e3!3m9!1s0x2e7baf0028b96af7:0xc3575bf9adebf702!5m2!4m1!1i2!8m2!3d-8.1043318!4d110.460338!15sChZQZW5naW5hcGFuIEd1bnVuZ2tpZHVskgENY2FtcGluZ19jYWJpbuABAA!16s%2Fg%2F11vk8f464z?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K29" t="inlineStr"/>
+      <c r="J29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -1660,25 +1627,24 @@
       </c>
       <c r="C30" t="inlineStr"/>
       <c r="D30" t="inlineStr"/>
-      <c r="E30" t="inlineStr"/>
+      <c r="E30" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F30" t="n">
-        <v>4.5</v>
+        <v>-8.026457000000001</v>
       </c>
       <c r="G30" t="n">
-        <v>-8.026457000000001</v>
-      </c>
-      <c r="H30" t="n">
         <v>110.57427</v>
       </c>
-      <c r="I30" t="b">
-        <v>0</v>
-      </c>
-      <c r="J30" t="inlineStr">
+      <c r="H30" t="b">
+        <v>0</v>
+      </c>
+      <c r="I30" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Homee+Glamping+Wunung+Giri/@-8.1043318,110.1719469,11z/data=!4m14!1m3!2m2!1sPenginapan+Gunungkidul!6e3!3m9!1s0x2e7bb3f56d56538d:0x288b244bc9209b0!5m2!4m1!1i2!8m2!3d-8.0264566!4d110.57427!15sChZQZW5naW5hcGFuIEd1bnVuZ2tpZHVskgEFaG90ZWzgAQA!16s%2Fg%2F11yb7m08t7?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K30" t="inlineStr"/>
+      <c r="J30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -1697,25 +1663,24 @@
           <t>0813-9271-8897</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr"/>
+      <c r="E31" t="n">
+        <v>4.4</v>
+      </c>
       <c r="F31" t="n">
-        <v>4.4</v>
+        <v>-8.124345999999999</v>
       </c>
       <c r="G31" t="n">
-        <v>-8.124345999999999</v>
-      </c>
-      <c r="H31" t="n">
         <v>110.553632</v>
       </c>
-      <c r="I31" t="b">
-        <v>0</v>
-      </c>
-      <c r="J31" t="inlineStr">
+      <c r="H31" t="b">
+        <v>0</v>
+      </c>
+      <c r="I31" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Kampoeng+Baron+Art+Resort+Restaurant+and+Guesthouse/@-7.9643268,110.3211254,11z/data=!4m14!1m3!2m2!1sPenginapan+Gunungkidul!6e3!3m9!1s0x2e7bba9a526ed4b7:0xc215c957581fd3ba!5m2!4m1!1i2!8m2!3d-8.1243461!4d110.5536321!15sChZQZW5naW5hcGFuIEd1bnVuZ2tpZHVskgESc2VhZm9vZF9yZXN0YXVyYW504AEA!16s%2Fg%2F11clyt2z3q?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K31" t="inlineStr"/>
+      <c r="J31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -1729,16 +1694,15 @@
       <c r="E32" t="inlineStr"/>
       <c r="F32" t="inlineStr"/>
       <c r="G32" t="inlineStr"/>
-      <c r="H32" t="inlineStr"/>
-      <c r="I32" t="b">
-        <v>0</v>
-      </c>
-      <c r="J32" t="inlineStr">
+      <c r="H32" t="b">
+        <v>0</v>
+      </c>
+      <c r="I32" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/search/Penginapan+Kota+Yogyakarta/@-7.8068008,110.3463372,14z/data=!4m2!2m1!6e3?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K32" t="inlineStr"/>
+      <c r="J32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -1752,16 +1716,15 @@
       <c r="E33" t="inlineStr"/>
       <c r="F33" t="inlineStr"/>
       <c r="G33" t="inlineStr"/>
-      <c r="H33" t="inlineStr"/>
-      <c r="I33" t="b">
-        <v>0</v>
-      </c>
-      <c r="J33" t="inlineStr">
+      <c r="H33" t="b">
+        <v>0</v>
+      </c>
+      <c r="I33" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/search/Penginapan+Kulon+Progo/@-7.8056036,110.2400464,11z/data=!4m2!2m1!6e3?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K33" t="inlineStr"/>
+      <c r="J33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -1775,16 +1738,15 @@
       <c r="E34" t="inlineStr"/>
       <c r="F34" t="inlineStr"/>
       <c r="G34" t="inlineStr"/>
-      <c r="H34" t="inlineStr"/>
-      <c r="I34" t="b">
-        <v>0</v>
-      </c>
-      <c r="J34" t="inlineStr">
+      <c r="H34" t="b">
+        <v>0</v>
+      </c>
+      <c r="I34" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/search/Penginapan+Sleman/@-7.7183079,110.3072452,13z/data=!4m2!2m1!6e3?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K34" t="inlineStr"/>
+      <c r="J34" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
